--- a/harga_beras.xlsx
+++ b/harga_beras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vania wrenda\Documents\WRENDA\SEMESTER 5\PROYEK SAINS DATA (PSD)\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2C7065-1BDD-48D2-B141-391E78F69430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E8826F-2751-4A0E-B0A1-318778F41286}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{EE7C6EF2-6C3D-4BD1-BF69-28C3714356DD}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Bulan</t>
   </si>
   <si>
-    <t xml:space="preserve">Tahun </t>
-  </si>
-  <si>
     <t>12,500</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Harga Beras Rojolele</t>
+  </si>
+  <si>
+    <t>Tahun</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -518,7 +518,7 @@
         <v>2020</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -529,7 +529,7 @@
         <v>2020</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -540,7 +540,7 @@
         <v>2020</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -551,7 +551,7 @@
         <v>2020</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
         <v>2020</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -573,7 +573,7 @@
         <v>2020</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -584,7 +584,7 @@
         <v>2020</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -595,7 +595,7 @@
         <v>2020</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>2020</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -617,7 +617,7 @@
         <v>2020</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>2020</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
         <v>2020</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -661,7 +661,7 @@
         <v>2021</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
         <v>2021</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -683,7 +683,7 @@
         <v>2021</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -694,7 +694,7 @@
         <v>2021</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>2021</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>2021</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>2021</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>2021</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
         <v>2021</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>2021</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -771,7 +771,7 @@
         <v>2021</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -782,7 +782,7 @@
         <v>2022</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -793,7 +793,7 @@
         <v>2022</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>2022</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -815,7 +815,7 @@
         <v>2022</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -826,7 +826,7 @@
         <v>2022</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -837,7 +837,7 @@
         <v>2022</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>2022</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -859,7 +859,7 @@
         <v>2022</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>2022</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>2022</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>2022</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -903,7 +903,7 @@
         <v>2022</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -914,7 +914,7 @@
         <v>2023</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -925,7 +925,7 @@
         <v>2023</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -936,7 +936,7 @@
         <v>2023</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>2023</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
         <v>2023</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -969,7 +969,7 @@
         <v>2023</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>2023</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -991,7 +991,7 @@
         <v>2023</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1002,7 +1002,7 @@
         <v>2023</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>2023</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
         <v>2023</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1035,7 +1035,7 @@
         <v>2023</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1046,7 +1046,7 @@
         <v>2024</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>2024</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>2024</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1079,7 +1079,7 @@
         <v>2024</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1090,7 +1090,7 @@
         <v>2024</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1101,7 +1101,7 @@
         <v>2024</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>2024</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>2024</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
